--- a/Consejo_Transparencia_datos.xlsx
+++ b/Consejo_Transparencia_datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-TRANSPARENCIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA07796-843F-449F-8823-8398E93820EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A2E2D1-2A10-4083-A1BE-D19F01E70E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F45F3B4D-B921-4DAC-BE84-BD0E17A45B98}"/>
   </bookViews>
@@ -1384,16 +1384,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>741362</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>265112</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>252412</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78467</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143555</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1408,8 +1408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10274300" y="0"/>
-          <a:ext cx="3486150" cy="1355725"/>
+          <a:off x="16403183" y="81643"/>
+          <a:ext cx="6303963" cy="1395412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1814,13 +1814,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BAA278C-B787-4EDD-A5FE-5B8FEEBBF13D}" name="Tabla1" displayName="Tabla1" ref="A7:G58" totalsRowShown="0" tableBorderDxfId="6">
-  <autoFilter ref="A7:G58" xr:uid="{65772B88-924E-4C69-9116-D67230A86C1A}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Media Alta"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:G58" xr:uid="{65772B88-924E-4C69-9116-D67230A86C1A}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FA0A456F-3C98-4BA4-83D2-093F2A0A6337}" name="Nombre BBDD" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{46974720-EE31-4BBF-B78D-7112082DC9A4}" name="Contenido BBDD" dataDxfId="4"/>
@@ -2376,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32D1C0-6381-49D7-AEDF-A84C3FED8387}">
   <dimension ref="A7:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -2414,7 +2408,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>77</v>
       </c>
@@ -2433,7 +2427,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>87</v>
       </c>
@@ -2452,7 +2446,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>86</v>
       </c>
@@ -2471,7 +2465,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>88</v>
       </c>
@@ -2490,7 +2484,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>89</v>
       </c>
@@ -2509,7 +2503,7 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>90</v>
       </c>
@@ -2528,7 +2522,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>91</v>
       </c>
@@ -2549,7 +2543,7 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>92</v>
       </c>
@@ -2568,7 +2562,7 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>93</v>
       </c>
@@ -2587,7 +2581,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>94</v>
       </c>
@@ -2606,7 +2600,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>95</v>
       </c>
@@ -2625,7 +2619,7 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>96</v>
       </c>
@@ -2644,7 +2638,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>97</v>
       </c>
@@ -2663,7 +2657,7 @@
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>98</v>
       </c>
@@ -2682,7 +2676,7 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>99</v>
       </c>
@@ -2701,7 +2695,7 @@
       </c>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>179</v>
       </c>
@@ -2720,7 +2714,7 @@
       </c>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>103</v>
       </c>
@@ -2739,7 +2733,7 @@
       </c>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>105</v>
       </c>
@@ -2760,7 +2754,7 @@
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>107</v>
       </c>
@@ -2779,7 +2773,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="67.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>108</v>
       </c>
@@ -2798,7 +2792,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>111</v>
       </c>
@@ -2817,7 +2811,7 @@
       </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>113</v>
       </c>
@@ -2836,7 +2830,7 @@
       </c>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>115</v>
       </c>
@@ -2874,7 +2868,7 @@
       </c>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>119</v>
       </c>
@@ -2891,7 +2885,7 @@
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>121</v>
       </c>
@@ -2908,7 +2902,7 @@
       </c>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>122</v>
       </c>
@@ -2927,7 +2921,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>234</v>
       </c>
@@ -2946,7 +2940,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>235</v>
       </c>
@@ -2967,7 +2961,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>236</v>
       </c>
@@ -3007,7 +3001,7 @@
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>127</v>
       </c>
@@ -3028,7 +3022,7 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>226</v>
       </c>
@@ -3047,7 +3041,7 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>227</v>
       </c>
@@ -3068,7 +3062,7 @@
       </c>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>131</v>
       </c>
@@ -3089,7 +3083,7 @@
       </c>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>133</v>
       </c>
@@ -3108,7 +3102,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>136</v>
       </c>
@@ -3129,7 +3123,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>137</v>
       </c>
@@ -3148,7 +3142,7 @@
       </c>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>228</v>
       </c>
@@ -3169,7 +3163,7 @@
       </c>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>140</v>
       </c>
@@ -3190,7 +3184,7 @@
       </c>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>229</v>
       </c>
@@ -3209,7 +3203,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>230</v>
       </c>
@@ -3230,7 +3224,7 @@
       </c>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>144</v>
       </c>
@@ -3249,7 +3243,7 @@
       </c>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>231</v>
       </c>
@@ -3268,7 +3262,7 @@
       </c>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>232</v>
       </c>
@@ -3289,7 +3283,7 @@
       </c>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>233</v>
       </c>
@@ -3329,7 +3323,7 @@
       </c>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>152</v>
       </c>
@@ -3348,7 +3342,7 @@
       </c>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>154</v>
       </c>
@@ -3367,7 +3361,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>156</v>
       </c>
@@ -3386,7 +3380,7 @@
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>68</v>
       </c>
